--- a/server/LISTAS/ma/FIX NAC.xlsx
+++ b/server/LISTAS/ma/FIX NAC.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/FIX NAC.xlsx
+++ b/server/LISTAS/ma/FIX NAC.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="C25" s="23" t="n"/>
       <c r="D25" s="6" t="n">
-        <v>2337.606</v>
+        <v>4186.328</v>
       </c>
       <c r="E25" s="3" t="n"/>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="C26" s="23" t="n"/>
       <c r="D26" s="7" t="n">
-        <v>2881.029</v>
+        <v>5159.521</v>
       </c>
       <c r="E26" s="3" t="n"/>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="C27" s="23" t="n"/>
       <c r="D27" s="6" t="n">
-        <v>3152.75</v>
+        <v>5646.136</v>
       </c>
       <c r="E27" s="3" t="n"/>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="C28" s="23" t="n"/>
       <c r="D28" s="6" t="n">
-        <v>3850.023</v>
+        <v>6894.853</v>
       </c>
     </row>
     <row r="29" s="14"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="C33" s="23" t="n"/>
       <c r="D33" s="6" t="n">
-        <v>2637.285</v>
+        <v>4723.01</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="14">
@@ -966,7 +966,7 @@
       </c>
       <c r="C34" s="23" t="n"/>
       <c r="D34" s="6" t="n">
-        <v>3166.757</v>
+        <v>5671.219</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="14">
@@ -982,7 +982,7 @@
       </c>
       <c r="C35" s="23" t="n"/>
       <c r="D35" s="6" t="n">
-        <v>3612.289</v>
+        <v>6469.107</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" s="14">
@@ -998,7 +998,7 @@
       </c>
       <c r="C36" s="23" t="n"/>
       <c r="D36" s="6" t="n">
-        <v>4175.69</v>
+        <v>7478.078</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="14">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C37" s="23" t="n"/>
       <c r="D37" s="6" t="n">
-        <v>4942.902</v>
+        <v>8852.048000000001</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" s="14">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C38" s="23" t="n"/>
       <c r="D38" s="6" t="n">
-        <v>5742.102</v>
+        <v>10283.303</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" s="14">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C39" s="23" t="n"/>
       <c r="D39" s="6" t="n">
-        <v>6633.184</v>
+        <v>11879.107</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" s="14">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C40" s="23" t="n"/>
       <c r="D40" s="6" t="n">
-        <v>7931.867</v>
+        <v>14204.868</v>
       </c>
     </row>
     <row r="41" s="14"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C45" s="23" t="n"/>
       <c r="D45" s="6" t="n">
-        <v>3276.617</v>
+        <v>5867.964</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" s="14">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C46" s="23" t="n"/>
       <c r="D46" s="6" t="n">
-        <v>3876.003</v>
+        <v>6941.38</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" s="14">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C47" s="23" t="n"/>
       <c r="D47" s="6" t="n">
-        <v>4677.181</v>
+        <v>8376.178</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="1" s="14">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C48" s="23" t="n"/>
       <c r="D48" s="6" t="n">
-        <v>5148.687</v>
+        <v>9220.582</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1" s="14">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C49" s="23" t="n"/>
       <c r="D49" s="6" t="n">
-        <v>6343.454</v>
+        <v>11360.241</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" s="14">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C50" s="23" t="n"/>
       <c r="D50" s="6" t="n">
-        <v>7042.752</v>
+        <v>12612.587</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1" s="14">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C51" s="23" t="n"/>
       <c r="D51" s="6" t="n">
-        <v>7724.051</v>
+        <v>13832.698</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" s="14">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C52" s="23" t="n"/>
       <c r="D52" s="6" t="n">
-        <v>8810.915999999999</v>
+        <v>15779.122</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" s="14">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C53" s="23" t="n"/>
       <c r="D53" s="6" t="n">
-        <v>9929.781999999999</v>
+        <v>17782.853</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1" s="14">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C58" s="23" t="n"/>
       <c r="D58" s="6" t="n">
-        <v>4417.456</v>
+        <v>7911.047</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" s="14">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C59" s="23" t="n"/>
       <c r="D59" s="6" t="n">
-        <v>5148.687</v>
+        <v>9220.582</v>
       </c>
     </row>
     <row r="60" ht="18" customHeight="1" s="14">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C60" s="23" t="n"/>
       <c r="D60" s="6" t="n">
-        <v>5774.042</v>
+        <v>10340.505</v>
       </c>
     </row>
     <row r="61" ht="18" customHeight="1" s="14">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C61" s="23" t="n"/>
       <c r="D61" s="6" t="n">
-        <v>6792.991</v>
+        <v>12165.299</v>
       </c>
     </row>
     <row r="62" ht="18" customHeight="1" s="14">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C62" s="23" t="n"/>
       <c r="D62" s="6" t="n">
-        <v>7831.935</v>
+        <v>14025.903</v>
       </c>
     </row>
     <row r="63" ht="18" customHeight="1" s="14">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C63" s="23" t="n"/>
       <c r="D63" s="6" t="n">
-        <v>9100.623</v>
+        <v>16297.947</v>
       </c>
     </row>
     <row r="64" ht="18" customHeight="1" s="14">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C64" s="23" t="n"/>
       <c r="D64" s="6" t="n">
-        <v>10169.525</v>
+        <v>18212.202</v>
       </c>
     </row>
     <row r="65" ht="18" customHeight="1" s="14">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C65" s="23" t="n"/>
       <c r="D65" s="6" t="n">
-        <v>10848.818</v>
+        <v>19428.72</v>
       </c>
     </row>
     <row r="66" ht="18" customHeight="1" s="14">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C66" s="23" t="n"/>
       <c r="D66" s="6" t="n">
-        <v>12327.311</v>
+        <v>22076.494</v>
       </c>
     </row>
     <row r="67" ht="18" customHeight="1" s="14">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="C67" s="23" t="n"/>
       <c r="D67" s="6" t="n">
-        <v>13286.343</v>
+        <v>23793.987</v>
       </c>
     </row>
     <row r="68" ht="18" customHeight="1" s="14">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="C68" s="23" t="n"/>
       <c r="D68" s="6" t="n">
-        <v>14265.289</v>
+        <v>25547.144</v>
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" s="14">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C69" s="23" t="n"/>
       <c r="D69" s="6" t="n">
-        <v>16163.348</v>
+        <v>28946.302</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1" s="14">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C74" s="23" t="n"/>
       <c r="D74" s="6" t="n">
-        <v>6553.249</v>
+        <v>11735.955</v>
       </c>
     </row>
     <row r="75" ht="18" customHeight="1" s="14">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C75" s="23" t="n"/>
       <c r="D75" s="6" t="n">
-        <v>7332.458</v>
+        <v>13131.41</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" s="14">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C76" s="23" t="n"/>
       <c r="D76" s="6" t="n">
-        <v>8101.039</v>
+        <v>14507.831</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" s="14">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C77" s="23" t="n"/>
       <c r="D77" s="6" t="n">
-        <v>10708.994</v>
+        <v>19178.313</v>
       </c>
     </row>
     <row r="78" ht="18" customHeight="1" s="14">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C78" s="23" t="n"/>
       <c r="D78" s="6" t="n">
-        <v>12187.449</v>
+        <v>21826.021</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" s="14">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C79" s="23" t="n"/>
       <c r="D79" s="6" t="n">
-        <v>13252.352</v>
+        <v>23733.114</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" s="14">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C80" s="23" t="n"/>
       <c r="D80" s="6" t="n">
-        <v>14505.055</v>
+        <v>25976.531</v>
       </c>
     </row>
     <row r="81" ht="18" customHeight="1" s="14">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="C81" s="23" t="n"/>
       <c r="D81" s="6" t="n">
-        <v>15827.69</v>
+        <v>28345.185</v>
       </c>
     </row>
     <row r="82" ht="18" customHeight="1" s="14">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C82" s="23" t="n"/>
       <c r="D82" s="6" t="n">
-        <v>17262.221</v>
+        <v>30914.23</v>
       </c>
     </row>
     <row r="83" ht="18" customHeight="1" s="14">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C83" s="23" t="n"/>
       <c r="D83" s="6" t="n">
-        <v>18788.666</v>
+        <v>33647.88</v>
       </c>
     </row>
     <row r="84" ht="18" customHeight="1" s="14">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C84" s="23" t="n"/>
       <c r="D84" s="6" t="n">
-        <v>21757.596</v>
+        <v>38964.82</v>
       </c>
     </row>
     <row r="85" ht="18" customHeight="1" s="14">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C85" s="23" t="n"/>
       <c r="D85" s="6" t="n">
-        <v>24750.477</v>
+        <v>44324.653</v>
       </c>
     </row>
     <row r="87" ht="24.75" customHeight="1" s="14">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C90" s="23" t="n"/>
       <c r="D90" s="6" t="n">
-        <v>8051.701</v>
+        <v>14419.473</v>
       </c>
     </row>
     <row r="91" ht="18" customHeight="1" s="14">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="C91" s="23" t="n"/>
       <c r="D91" s="6" t="n">
-        <v>9020.700000000001</v>
+        <v>16154.816</v>
       </c>
     </row>
     <row r="92" ht="18" customHeight="1" s="14">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C92" s="23" t="n"/>
       <c r="D92" s="6" t="n">
-        <v>11148.514</v>
+        <v>19965.433</v>
       </c>
     </row>
     <row r="93" ht="18" customHeight="1" s="14">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C93" s="23" t="n"/>
       <c r="D93" s="6" t="n">
-        <v>12706.92</v>
+        <v>22756.32</v>
       </c>
     </row>
     <row r="94" ht="18" customHeight="1" s="14">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C94" s="23" t="n"/>
       <c r="D94" s="6" t="n">
-        <v>14265.289</v>
+        <v>25547.144</v>
       </c>
     </row>
     <row r="95" ht="18" customHeight="1" s="14">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C95" s="23" t="n"/>
       <c r="D95" s="6" t="n">
-        <v>15863.666</v>
+        <v>28409.612</v>
       </c>
     </row>
     <row r="96" ht="18" customHeight="1" s="14">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C96" s="23" t="n"/>
       <c r="D96" s="6" t="n">
-        <v>17442.029</v>
+        <v>31236.24</v>
       </c>
     </row>
     <row r="97" ht="18" customHeight="1" s="14">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C97" s="23" t="n"/>
       <c r="D97" s="6" t="n">
-        <v>19240.161</v>
+        <v>34456.444</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" s="14">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C98" s="23" t="n"/>
       <c r="D98" s="6" t="n">
-        <v>21238.115</v>
+        <v>38034.502</v>
       </c>
     </row>
     <row r="99" ht="18" customHeight="1" s="14">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="C99" s="23" t="n"/>
       <c r="D99" s="6" t="n">
-        <v>22776.531</v>
+        <v>40789.588</v>
       </c>
     </row>
     <row r="100" ht="18" customHeight="1" s="14">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C100" s="23" t="n"/>
       <c r="D100" s="6" t="n">
-        <v>26193.027</v>
+        <v>46908.057</v>
       </c>
     </row>
     <row r="101" ht="18" customHeight="1" s="14">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="C101" s="23" t="n"/>
       <c r="D101" s="6" t="n">
-        <v>29629.475</v>
+        <v>53062.258</v>
       </c>
     </row>
     <row r="102" ht="18" customHeight="1" s="14">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="C102" s="23" t="n"/>
       <c r="D102" s="6" t="n">
-        <v>33085.913</v>
+        <v>59252.254</v>
       </c>
     </row>
     <row r="103" ht="18" customHeight="1" s="14">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C103" s="23" t="n"/>
       <c r="D103" s="6" t="n">
-        <v>36542.339</v>
+        <v>65442.232</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1" s="14">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C108" s="23" t="n"/>
       <c r="D108" s="6" t="n">
-        <v>19539.871</v>
+        <v>34993.184</v>
       </c>
     </row>
     <row r="109" ht="18" customHeight="1" s="14">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="C109" s="23" t="n"/>
       <c r="D109" s="6" t="n">
-        <v>21917.442</v>
+        <v>39251.082</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="1" s="14">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C110" s="23" t="n"/>
       <c r="D110" s="6" t="n">
-        <v>24255.004</v>
+        <v>43437.327</v>
       </c>
     </row>
     <row r="111" ht="18" customHeight="1" s="14">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C111" s="23" t="n"/>
       <c r="D111" s="6" t="n">
-        <v>26772.397</v>
+        <v>47945.629</v>
       </c>
     </row>
     <row r="112" ht="18" customHeight="1" s="14">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="C112" s="23" t="n"/>
       <c r="D112" s="6" t="n">
-        <v>29235.896</v>
+        <v>52357.413</v>
       </c>
     </row>
     <row r="113" ht="18" customHeight="1" s="14">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C113" s="23" t="n"/>
       <c r="D113" s="6" t="n">
-        <v>34184.776</v>
+        <v>61220.166</v>
       </c>
     </row>
     <row r="114" ht="18" customHeight="1" s="14">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="C114" s="23" t="n"/>
       <c r="D114" s="6" t="n">
-        <v>39159.668</v>
+        <v>70129.503</v>
       </c>
     </row>
     <row r="115" ht="18" customHeight="1" s="14">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="C115" s="23" t="n"/>
       <c r="D115" s="6" t="n">
-        <v>44154.516</v>
+        <v>79074.58</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1" s="14">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C116" s="23" t="n"/>
       <c r="D116" s="6" t="n">
-        <v>49369.145</v>
+        <v>88413.25199999999</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="1" s="14">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="C117" s="23" t="n"/>
       <c r="D117" s="6" t="n">
-        <v>54803.527</v>
+        <v>98145.47199999999</v>
       </c>
     </row>
     <row r="118" ht="18" customHeight="1" s="14">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C118" s="23" t="n"/>
       <c r="D118" s="6" t="n">
-        <v>65932.076</v>
+        <v>118075.151</v>
       </c>
     </row>
     <row r="119" ht="18" customHeight="1" s="14">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C119" s="23" t="n"/>
       <c r="D119" s="6" t="n">
-        <v>72125.702</v>
+        <v>129167.07</v>
       </c>
     </row>
     <row r="120" ht="18" customHeight="1" s="14">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="C120" s="23" t="n"/>
       <c r="D120" s="6" t="n">
-        <v>78319.317</v>
+        <v>140258.972</v>
       </c>
     </row>
     <row r="121" ht="18" customHeight="1" s="14">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C121" s="23" t="n"/>
       <c r="D121" s="6" t="n">
-        <v>84712.724</v>
+        <v>151708.67</v>
       </c>
     </row>
     <row r="122" ht="18" customHeight="1" s="14">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C122" s="23" t="n"/>
       <c r="D122" s="6" t="n">
-        <v>98878.133</v>
+        <v>177076.943</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" s="14">
@@ -2202,96 +2202,96 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B108:C108"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B83:C83"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B117:C117"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/FIX NAC.xlsx
+++ b/server/LISTAS/ma/FIX NAC.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/FIX NAC.xlsx
+++ b/server/LISTAS/ma/FIX NAC.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -2202,96 +2202,96 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B108:C108"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B83:C83"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B117:C117"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/FIX NAC.xlsx
+++ b/server/LISTAS/ma/FIX NAC.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -2202,96 +2202,96 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B117:C117"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B109:C109"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B110:C110"/>
     <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B94:C94"/>
     <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/FIX NAC.xlsx
+++ b/server/LISTAS/ma/FIX NAC.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -2202,96 +2202,96 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B108:C108"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B83:C83"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B117:C117"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/FIX NAC.xlsx
+++ b/server/LISTAS/ma/FIX NAC.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="C25" s="23" t="n"/>
       <c r="D25" s="6" t="n">
-        <v>2337.606</v>
+        <v>4186.328</v>
       </c>
       <c r="E25" s="3" t="n"/>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="C26" s="23" t="n"/>
       <c r="D26" s="7" t="n">
-        <v>2881.029</v>
+        <v>5159.521</v>
       </c>
       <c r="E26" s="3" t="n"/>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="C27" s="23" t="n"/>
       <c r="D27" s="6" t="n">
-        <v>3152.75</v>
+        <v>5646.136</v>
       </c>
       <c r="E27" s="3" t="n"/>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="C28" s="23" t="n"/>
       <c r="D28" s="6" t="n">
-        <v>3850.023</v>
+        <v>6894.853</v>
       </c>
     </row>
     <row r="29" s="14"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="C33" s="23" t="n"/>
       <c r="D33" s="6" t="n">
-        <v>2637.285</v>
+        <v>4723.01</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="14">
@@ -966,7 +966,7 @@
       </c>
       <c r="C34" s="23" t="n"/>
       <c r="D34" s="6" t="n">
-        <v>3166.757</v>
+        <v>5671.219</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="14">
@@ -982,7 +982,7 @@
       </c>
       <c r="C35" s="23" t="n"/>
       <c r="D35" s="6" t="n">
-        <v>3612.289</v>
+        <v>6469.107</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" s="14">
@@ -998,7 +998,7 @@
       </c>
       <c r="C36" s="23" t="n"/>
       <c r="D36" s="6" t="n">
-        <v>4175.69</v>
+        <v>7478.078</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="14">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C37" s="23" t="n"/>
       <c r="D37" s="6" t="n">
-        <v>4942.902</v>
+        <v>8852.048000000001</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" s="14">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C38" s="23" t="n"/>
       <c r="D38" s="6" t="n">
-        <v>5742.102</v>
+        <v>10283.303</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" s="14">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C39" s="23" t="n"/>
       <c r="D39" s="6" t="n">
-        <v>6633.184</v>
+        <v>11879.107</v>
       </c>
     </row>
     <row r="40" ht="18" customHeight="1" s="14">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C40" s="23" t="n"/>
       <c r="D40" s="6" t="n">
-        <v>7931.867</v>
+        <v>14204.868</v>
       </c>
     </row>
     <row r="41" s="14"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C45" s="23" t="n"/>
       <c r="D45" s="6" t="n">
-        <v>3276.617</v>
+        <v>5867.964</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" s="14">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C46" s="23" t="n"/>
       <c r="D46" s="6" t="n">
-        <v>3876.003</v>
+        <v>6941.38</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" s="14">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="C47" s="23" t="n"/>
       <c r="D47" s="6" t="n">
-        <v>4677.181</v>
+        <v>8376.178</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="1" s="14">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C48" s="23" t="n"/>
       <c r="D48" s="6" t="n">
-        <v>5148.687</v>
+        <v>9220.582</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1" s="14">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C49" s="23" t="n"/>
       <c r="D49" s="6" t="n">
-        <v>6343.454</v>
+        <v>11360.241</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" s="14">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C50" s="23" t="n"/>
       <c r="D50" s="6" t="n">
-        <v>7042.752</v>
+        <v>12612.587</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1" s="14">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C51" s="23" t="n"/>
       <c r="D51" s="6" t="n">
-        <v>7724.051</v>
+        <v>13832.698</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" s="14">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C52" s="23" t="n"/>
       <c r="D52" s="6" t="n">
-        <v>8810.915999999999</v>
+        <v>15779.122</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" s="14">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C53" s="23" t="n"/>
       <c r="D53" s="6" t="n">
-        <v>9929.781999999999</v>
+        <v>17782.853</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1" s="14">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C58" s="23" t="n"/>
       <c r="D58" s="6" t="n">
-        <v>4417.456</v>
+        <v>7911.047</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" s="14">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C59" s="23" t="n"/>
       <c r="D59" s="6" t="n">
-        <v>5148.687</v>
+        <v>9220.582</v>
       </c>
     </row>
     <row r="60" ht="18" customHeight="1" s="14">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C60" s="23" t="n"/>
       <c r="D60" s="6" t="n">
-        <v>5774.042</v>
+        <v>10340.505</v>
       </c>
     </row>
     <row r="61" ht="18" customHeight="1" s="14">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C61" s="23" t="n"/>
       <c r="D61" s="6" t="n">
-        <v>6792.991</v>
+        <v>12165.299</v>
       </c>
     </row>
     <row r="62" ht="18" customHeight="1" s="14">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C62" s="23" t="n"/>
       <c r="D62" s="6" t="n">
-        <v>7831.935</v>
+        <v>14025.903</v>
       </c>
     </row>
     <row r="63" ht="18" customHeight="1" s="14">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C63" s="23" t="n"/>
       <c r="D63" s="6" t="n">
-        <v>9100.623</v>
+        <v>16297.947</v>
       </c>
     </row>
     <row r="64" ht="18" customHeight="1" s="14">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C64" s="23" t="n"/>
       <c r="D64" s="6" t="n">
-        <v>10169.525</v>
+        <v>18212.202</v>
       </c>
     </row>
     <row r="65" ht="18" customHeight="1" s="14">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C65" s="23" t="n"/>
       <c r="D65" s="6" t="n">
-        <v>10848.818</v>
+        <v>19428.72</v>
       </c>
     </row>
     <row r="66" ht="18" customHeight="1" s="14">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C66" s="23" t="n"/>
       <c r="D66" s="6" t="n">
-        <v>12327.311</v>
+        <v>22076.494</v>
       </c>
     </row>
     <row r="67" ht="18" customHeight="1" s="14">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="C67" s="23" t="n"/>
       <c r="D67" s="6" t="n">
-        <v>13286.343</v>
+        <v>23793.987</v>
       </c>
     </row>
     <row r="68" ht="18" customHeight="1" s="14">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="C68" s="23" t="n"/>
       <c r="D68" s="6" t="n">
-        <v>14265.289</v>
+        <v>25547.144</v>
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" s="14">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C69" s="23" t="n"/>
       <c r="D69" s="6" t="n">
-        <v>16163.348</v>
+        <v>28946.302</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1" s="14">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C74" s="23" t="n"/>
       <c r="D74" s="6" t="n">
-        <v>6553.249</v>
+        <v>11735.955</v>
       </c>
     </row>
     <row r="75" ht="18" customHeight="1" s="14">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C75" s="23" t="n"/>
       <c r="D75" s="6" t="n">
-        <v>7332.458</v>
+        <v>13131.41</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" s="14">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C76" s="23" t="n"/>
       <c r="D76" s="6" t="n">
-        <v>8101.039</v>
+        <v>14507.831</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" s="14">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C77" s="23" t="n"/>
       <c r="D77" s="6" t="n">
-        <v>10708.994</v>
+        <v>19178.313</v>
       </c>
     </row>
     <row r="78" ht="18" customHeight="1" s="14">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C78" s="23" t="n"/>
       <c r="D78" s="6" t="n">
-        <v>12187.449</v>
+        <v>21826.021</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" s="14">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C79" s="23" t="n"/>
       <c r="D79" s="6" t="n">
-        <v>13252.352</v>
+        <v>23733.114</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" s="14">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C80" s="23" t="n"/>
       <c r="D80" s="6" t="n">
-        <v>14505.055</v>
+        <v>25976.531</v>
       </c>
     </row>
     <row r="81" ht="18" customHeight="1" s="14">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="C81" s="23" t="n"/>
       <c r="D81" s="6" t="n">
-        <v>15827.69</v>
+        <v>28345.185</v>
       </c>
     </row>
     <row r="82" ht="18" customHeight="1" s="14">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C82" s="23" t="n"/>
       <c r="D82" s="6" t="n">
-        <v>17262.221</v>
+        <v>30914.23</v>
       </c>
     </row>
     <row r="83" ht="18" customHeight="1" s="14">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C83" s="23" t="n"/>
       <c r="D83" s="6" t="n">
-        <v>18788.666</v>
+        <v>33647.88</v>
       </c>
     </row>
     <row r="84" ht="18" customHeight="1" s="14">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C84" s="23" t="n"/>
       <c r="D84" s="6" t="n">
-        <v>21757.596</v>
+        <v>38964.82</v>
       </c>
     </row>
     <row r="85" ht="18" customHeight="1" s="14">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C85" s="23" t="n"/>
       <c r="D85" s="6" t="n">
-        <v>24750.477</v>
+        <v>44324.653</v>
       </c>
     </row>
     <row r="87" ht="24.75" customHeight="1" s="14">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C90" s="23" t="n"/>
       <c r="D90" s="6" t="n">
-        <v>8051.701</v>
+        <v>14419.473</v>
       </c>
     </row>
     <row r="91" ht="18" customHeight="1" s="14">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="C91" s="23" t="n"/>
       <c r="D91" s="6" t="n">
-        <v>9020.700000000001</v>
+        <v>16154.816</v>
       </c>
     </row>
     <row r="92" ht="18" customHeight="1" s="14">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C92" s="23" t="n"/>
       <c r="D92" s="6" t="n">
-        <v>11148.514</v>
+        <v>19965.433</v>
       </c>
     </row>
     <row r="93" ht="18" customHeight="1" s="14">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C93" s="23" t="n"/>
       <c r="D93" s="6" t="n">
-        <v>12706.92</v>
+        <v>22756.32</v>
       </c>
     </row>
     <row r="94" ht="18" customHeight="1" s="14">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C94" s="23" t="n"/>
       <c r="D94" s="6" t="n">
-        <v>14265.289</v>
+        <v>25547.144</v>
       </c>
     </row>
     <row r="95" ht="18" customHeight="1" s="14">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C95" s="23" t="n"/>
       <c r="D95" s="6" t="n">
-        <v>15863.666</v>
+        <v>28409.612</v>
       </c>
     </row>
     <row r="96" ht="18" customHeight="1" s="14">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C96" s="23" t="n"/>
       <c r="D96" s="6" t="n">
-        <v>17442.029</v>
+        <v>31236.24</v>
       </c>
     </row>
     <row r="97" ht="18" customHeight="1" s="14">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C97" s="23" t="n"/>
       <c r="D97" s="6" t="n">
-        <v>19240.161</v>
+        <v>34456.444</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" s="14">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C98" s="23" t="n"/>
       <c r="D98" s="6" t="n">
-        <v>21238.115</v>
+        <v>38034.502</v>
       </c>
     </row>
     <row r="99" ht="18" customHeight="1" s="14">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="C99" s="23" t="n"/>
       <c r="D99" s="6" t="n">
-        <v>22776.531</v>
+        <v>40789.588</v>
       </c>
     </row>
     <row r="100" ht="18" customHeight="1" s="14">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C100" s="23" t="n"/>
       <c r="D100" s="6" t="n">
-        <v>26193.027</v>
+        <v>46908.057</v>
       </c>
     </row>
     <row r="101" ht="18" customHeight="1" s="14">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="C101" s="23" t="n"/>
       <c r="D101" s="6" t="n">
-        <v>29629.475</v>
+        <v>53062.258</v>
       </c>
     </row>
     <row r="102" ht="18" customHeight="1" s="14">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="C102" s="23" t="n"/>
       <c r="D102" s="6" t="n">
-        <v>33085.913</v>
+        <v>59252.254</v>
       </c>
     </row>
     <row r="103" ht="18" customHeight="1" s="14">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C103" s="23" t="n"/>
       <c r="D103" s="6" t="n">
-        <v>36542.339</v>
+        <v>65442.232</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1" s="14">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C108" s="23" t="n"/>
       <c r="D108" s="6" t="n">
-        <v>19539.871</v>
+        <v>34993.184</v>
       </c>
     </row>
     <row r="109" ht="18" customHeight="1" s="14">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="C109" s="23" t="n"/>
       <c r="D109" s="6" t="n">
-        <v>21917.442</v>
+        <v>39251.082</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="1" s="14">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C110" s="23" t="n"/>
       <c r="D110" s="6" t="n">
-        <v>24255.004</v>
+        <v>43437.327</v>
       </c>
     </row>
     <row r="111" ht="18" customHeight="1" s="14">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C111" s="23" t="n"/>
       <c r="D111" s="6" t="n">
-        <v>26772.397</v>
+        <v>47945.629</v>
       </c>
     </row>
     <row r="112" ht="18" customHeight="1" s="14">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="C112" s="23" t="n"/>
       <c r="D112" s="6" t="n">
-        <v>29235.896</v>
+        <v>52357.413</v>
       </c>
     </row>
     <row r="113" ht="18" customHeight="1" s="14">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C113" s="23" t="n"/>
       <c r="D113" s="6" t="n">
-        <v>34184.776</v>
+        <v>61220.166</v>
       </c>
     </row>
     <row r="114" ht="18" customHeight="1" s="14">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="C114" s="23" t="n"/>
       <c r="D114" s="6" t="n">
-        <v>39159.668</v>
+        <v>70129.503</v>
       </c>
     </row>
     <row r="115" ht="18" customHeight="1" s="14">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="C115" s="23" t="n"/>
       <c r="D115" s="6" t="n">
-        <v>44154.516</v>
+        <v>79074.58</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1" s="14">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C116" s="23" t="n"/>
       <c r="D116" s="6" t="n">
-        <v>49369.145</v>
+        <v>88413.25199999999</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="1" s="14">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="C117" s="23" t="n"/>
       <c r="D117" s="6" t="n">
-        <v>54803.527</v>
+        <v>98145.47199999999</v>
       </c>
     </row>
     <row r="118" ht="18" customHeight="1" s="14">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C118" s="23" t="n"/>
       <c r="D118" s="6" t="n">
-        <v>65932.076</v>
+        <v>118075.151</v>
       </c>
     </row>
     <row r="119" ht="18" customHeight="1" s="14">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C119" s="23" t="n"/>
       <c r="D119" s="6" t="n">
-        <v>72125.702</v>
+        <v>129167.07</v>
       </c>
     </row>
     <row r="120" ht="18" customHeight="1" s="14">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="C120" s="23" t="n"/>
       <c r="D120" s="6" t="n">
-        <v>78319.317</v>
+        <v>140258.972</v>
       </c>
     </row>
     <row r="121" ht="18" customHeight="1" s="14">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C121" s="23" t="n"/>
       <c r="D121" s="6" t="n">
-        <v>84712.724</v>
+        <v>151708.67</v>
       </c>
     </row>
     <row r="122" ht="18" customHeight="1" s="14">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C122" s="23" t="n"/>
       <c r="D122" s="6" t="n">
-        <v>98878.133</v>
+        <v>177076.943</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" s="14">
@@ -2202,96 +2202,96 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B117:C117"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B109:C109"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B110:C110"/>
     <mergeCell ref="A87:C87"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B94:C94"/>
     <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
